--- a/Test Cases Pet registration v2y.xlsx
+++ b/Test Cases Pet registration v2y.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="174">
   <si>
     <t>TC Title</t>
   </si>
@@ -343,8 +343,20 @@
     <t>Comments:</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Pet type </t>
+    <t>isn't it a field ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Select month, year and day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.Select month, year and day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.Select month, year and day </t>
+  </si>
+  <si>
+    <r>
+      <t>10.Type  less than 255 character in the "</t>
     </r>
     <r>
       <rPr>
@@ -354,22 +366,43 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>dopdown</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> menu</t>
-    </r>
-  </si>
-  <si>
-    <t>isn't it a field ?</t>
-  </si>
-  <si>
+      <t>Discription</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" text area</t>
+    </r>
+  </si>
+  <si>
+    <t>The description is not exhaustive enough</t>
+  </si>
+  <si>
+    <t>it should include the result as well</t>
+  </si>
+  <si>
+    <t>WRONG!!! You should have 2 test cases for 3 characters and for 15</t>
+  </si>
+  <si>
+    <t>missing result in the description</t>
+  </si>
+  <si>
+    <t>what error? Indicates how?</t>
+  </si>
+  <si>
+    <t>why leave all oher fields empty?</t>
+  </si>
+  <si>
+    <t>indicates success how?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if the </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -378,21 +411,16 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>Submin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.Go to the navigation bar and click "Pet</t>
+      <t>Pety</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> type drop down display</t>
     </r>
     <r>
       <rPr>
@@ -402,21 +430,21 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Registrarion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Go to the navigation bar and click "User </t>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> the chosen type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Verify that the pet name field  accept</t>
     </r>
     <r>
       <rPr>
@@ -426,21 +454,19 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>registrarion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Enter between 2 and 16 characters in the "Pet name " field . </t>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> only alphabets and numbers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Show</t>
     </r>
     <r>
       <rPr>
@@ -450,21 +476,21 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>Atleast</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> one should be special symbol (leave the other fields empty and don’t click submit) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check if the pet name field accepts  special </t>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> list of pet types</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Show</t>
     </r>
     <r>
       <rPr>
@@ -474,19 +500,16 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>special</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> symbols</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check if the owner name field accepts  special </t>
+      <t>s a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> list of bet breeds for the chosen  pet type for example if you cho</t>
     </r>
     <r>
       <rPr>
@@ -496,22 +519,40 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>special</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> symbols</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Select month, year and day </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Type  more than 255 character in the </t>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">se cat for pet type it should  show you  Persian , Siberian  etc. for pet breed </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that the pet breed drop down  shows  the pet breed for the chosen  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>before that pet type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
@@ -521,24 +562,18 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>"Discription"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> text area</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">7.Select month, year and day </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Make </t>
+      <t>choosen pet type?)</t>
+    </r>
+  </si>
+  <si>
+    <t>OK, but what error? Indicates how?</t>
+  </si>
+  <si>
+    <t>Ok, but what error? Indicates how?</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify that the owner name field does not accept more than</t>
     </r>
     <r>
       <rPr>
@@ -548,24 +583,27 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>regsitration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> entering all the required fields</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8.Select month, year and day </t>
-  </si>
-  <si>
-    <r>
-      <t>10.Type  less than 255 character in the "</t>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> characters </t>
+    </r>
+  </si>
+  <si>
+    <t>what type of characters?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t>Check if birthdate drop down  display</t>
     </r>
     <r>
       <rPr>
@@ -575,21 +613,21 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>Discription</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>" text area</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Make </t>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  the chosen date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that the owner name field </t>
     </r>
     <r>
       <rPr>
@@ -599,21 +637,21 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>regsitration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> entering all the required and not required  fields</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Make registration entering </t>
+      <t xml:space="preserve">does not accept more than 2 characters </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Color drop-down </t>
+  </si>
+  <si>
+    <t>not exhaustive enough</t>
+  </si>
+  <si>
+    <t>result?</t>
+  </si>
+  <si>
+    <r>
+      <t>Show</t>
     </r>
     <r>
       <rPr>
@@ -623,21 +661,21 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>incorect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> data for  owner name </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Make </t>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> list with colors </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The input field display</t>
     </r>
     <r>
       <rPr>
@@ -647,16 +685,21 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>regsitration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> entering  </t>
+      <t>s the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  chosen color</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.Select  </t>
     </r>
     <r>
       <rPr>
@@ -666,21 +709,16 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">incorrec </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Owner name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Make </t>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>random  pet type</t>
     </r>
     <r>
       <rPr>
@@ -690,16 +728,12 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>regsitration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> entering  </t>
+      <t xml:space="preserve"> :D (wtf?)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Show</t>
     </r>
     <r>
       <rPr>
@@ -709,21 +743,16 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>incorrec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> user name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.Type  more  than 255 character in the "</t>
+      <t>s a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> list of pet breed</t>
     </r>
     <r>
       <rPr>
@@ -733,21 +762,24 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>Discription</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>" text area</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Make </t>
+      <t xml:space="preserve">s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>for the chosen pet type</t>
+    </r>
+  </si>
+  <si>
+    <t>how..</t>
+  </si>
+  <si>
+    <r>
+      <t>Display</t>
     </r>
     <r>
       <rPr>
@@ -757,42 +789,21 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>regsitration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> entering  more than 255 characters In the description area</t>
-    </r>
-  </si>
-  <si>
-    <t>The description is not exhaustive enough</t>
-  </si>
-  <si>
-    <t>it should include the result as well</t>
-  </si>
-  <si>
-    <t>WRONG!!! You should have 2 test cases for 3 characters and for 15</t>
-  </si>
-  <si>
-    <t>missing result in the description</t>
-  </si>
-  <si>
-    <t>what error? Indicates how?</t>
-  </si>
-  <si>
-    <t>why leave all oher fields empty?</t>
-  </si>
-  <si>
-    <t>indicates success how?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check if the </t>
+      <t>s a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> message for successful registration </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.Select  </t>
     </r>
     <r>
       <rPr>
@@ -802,347 +813,6 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>Pety</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> type drop down display</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> the chosen type</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Verify that the pet name field  accept</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> only alphabets and numbers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check if the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Pety</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> type  drop down display</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> the right breeds for the chosen pet type</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Show</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> list of pet types</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Show</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>s a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> list of bet breeds for the chosen  pet type for example if you cho</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">se cat for pet type it should  show you  Persian , Siberian  etc. for pet breed </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that the pet breed drop down  shows  the pet breed for the chosen  </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>before that pet type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>choosen pet type?)</t>
-    </r>
-  </si>
-  <si>
-    <t>OK, but what error? Indicates how?</t>
-  </si>
-  <si>
-    <t>Ok, but what error? Indicates how?</t>
-  </si>
-  <si>
-    <r>
-      <t>Verify that the owner name field does not accept more than</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> characters </t>
-    </r>
-  </si>
-  <si>
-    <t>what type of characters?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <r>
-      <t>Check if birthdate drop down  display</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  the chosen date</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that the owner name field </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">does not accept more than 2 characters </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Color drop-down </t>
-  </si>
-  <si>
-    <t>not exhaustive enough</t>
-  </si>
-  <si>
-    <t>result?</t>
-  </si>
-  <si>
-    <r>
-      <t>Show</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> list with colors </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The input field display</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>s the</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  chosen color</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3.Select  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
       <t xml:space="preserve">a </t>
     </r>
     <r>
@@ -1152,155 +822,11 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>random  pet type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> :D (wtf?)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Show</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>s a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> list of pet breed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">s </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>for the chosen pet type</t>
-    </r>
-  </si>
-  <si>
-    <t>how..</t>
-  </si>
-  <si>
-    <r>
-      <t>Display</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>s a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> message for successful registration </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3.Select  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
       <t>random  pet type :D</t>
     </r>
   </si>
   <si>
     <t>the radiobutton is showing the selected gender</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Make</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> registration entering </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>incorect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> data for pet name </t>
-    </r>
   </si>
   <si>
     <t>the characters are displayed in the text area e.g</t>
@@ -1394,6 +920,669 @@
   </si>
   <si>
     <r>
+      <t>Make registration entering valid data for  all required and not required fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> AND...</t>
+    </r>
+  </si>
+  <si>
+    <t>result&gt;</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>Case, where you submit the wrong data?</t>
+  </si>
+  <si>
+    <r>
+      <t>1.Go to the navigation bar and click "Pet</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Registrarion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Go to the navigation bar and click "User </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>registrarion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if the pet name field accepts  special </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>special</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>symbols</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pet type </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>dopdown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> menu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Submin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Enter between 2 and 16 characters in the "Pet name " field . </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Atleast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> one should be special symbol (leave the other fields empty and don’t click submit) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Check if the</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Pety</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> type  drop down display</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> the right breeds for the chosen pet type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if the owner name field accepts  special </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>special</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> symbols</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Type  more than 255 character in the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Discription"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> text area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Make</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>regsitration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> entering all the required fields</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Make </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>regsitration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> entering all the required and not required  fields</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Make </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>regsitration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> entering  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>incorrec</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>user name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Make registration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">entering </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>incorect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> data for pet name </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10.Type  less than 255 character in the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Discription</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> text area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Make </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>regsitration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> entering  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>incorrec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Owner name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Make registration entering </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>incorect</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">data for  owner name </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.Enter </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>incorect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> data( less than 2 more characters ,than 16 characters , symbols) for the "Owner name " field .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.Type  less than 255 character in the</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Discription</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> text area</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>3.Select  random  pet type</t>
     </r>
     <r>
@@ -1404,63 +1593,99 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> :D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.Enter  </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>incorect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> data( less than 2 more characters ,than 16 characters , symbols) for the "Owner name " field .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Make registration entering valid data for  all required and not required fields</t>
-    </r>
-    <r>
-      <rPr>
+      <t>:D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Make</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> AND...</t>
-    </r>
-  </si>
-  <si>
-    <t>result&gt;</t>
-  </si>
-  <si>
-    <t>how</t>
-  </si>
-  <si>
-    <t>Case, where you submit the wrong data?</t>
+      <t>regsitration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> entering  more than 255 characters In the description area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10.Type  more  than 255 character in the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Discription</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" text area</t>
+    </r>
+  </si>
+  <si>
+    <t>why leave all other fields empty?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1560,6 +1785,22 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1834,12 +2075,99 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1855,101 +2183,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2259,8 +2500,8 @@
   <dimension ref="A1:Z141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2306,7 +2547,7 @@
         <v>45</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>46</v>
@@ -2365,7 +2606,7 @@
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="H4" s="46"/>
       <c r="I4" s="23"/>
@@ -2480,7 +2721,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="46"/>
       <c r="I8" s="23"/>
@@ -2564,7 +2805,7 @@
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="H11" s="46"/>
       <c r="I11" s="23"/>
@@ -2623,13 +2864,13 @@
         <v>18</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="G13" s="41"/>
       <c r="H13" s="46"/>
@@ -2659,7 +2900,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="43" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G14" s="41"/>
       <c r="H14" s="46"/>
@@ -2699,7 +2940,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="23"/>
@@ -2764,7 +3005,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="23"/>
@@ -2813,13 +3054,13 @@
       <c r="Z18" s="23"/>
     </row>
     <row r="19" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="61" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -2847,9 +3088,9 @@
       <c r="Z19" s="23"/>
     </row>
     <row r="20" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="11" t="s">
         <v>16</v>
       </c>
@@ -2877,13 +3118,13 @@
       <c r="Z20" s="23"/>
     </row>
     <row r="21" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
       <c r="H21" s="46"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
@@ -2921,10 +3162,10 @@
         <v>32</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="23"/>
@@ -2979,20 +3220,20 @@
       <c r="B24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="61" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="H24" s="46"/>
       <c r="I24" s="23"/>
@@ -3017,8 +3258,8 @@
     <row r="25" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="18"/>
       <c r="H25" s="46"/>
       <c r="I25" s="23"/>
@@ -3073,20 +3314,20 @@
       <c r="B27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="63" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="H27" s="46"/>
       <c r="I27" s="23"/>
@@ -3111,8 +3352,8 @@
     <row r="28" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="54"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="14"/>
       <c r="H28" s="46"/>
       <c r="I28" s="23"/>
@@ -3135,11 +3376,11 @@
       <c r="Z28" s="23"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
       <c r="H29" s="46"/>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
@@ -3161,23 +3402,23 @@
       <c r="Z29" s="23"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="64" t="s">
+      <c r="A30" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="63" t="s">
+      <c r="D30" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="66" t="s">
         <v>32</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H30" s="46"/>
       <c r="I30" s="23"/>
@@ -3200,11 +3441,11 @@
       <c r="Z30" s="23"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="63"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="66"/>
       <c r="H31" s="46"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -3228,8 +3469,8 @@
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="55"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="18"/>
       <c r="H32" s="46"/>
       <c r="I32" s="23"/>
@@ -3252,11 +3493,11 @@
       <c r="Z32" s="23"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
       <c r="H33" s="46"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
@@ -3284,13 +3525,13 @@
       <c r="B34" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="54" t="s">
+      <c r="C34" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="65" t="s">
         <v>40</v>
       </c>
       <c r="H34" s="46"/>
@@ -3317,10 +3558,10 @@
       <c r="A35" s="67"/>
       <c r="B35" s="67"/>
       <c r="C35" s="67"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="65"/>
       <c r="F35" s="42" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="H35" s="46"/>
       <c r="I35" s="23"/>
@@ -3346,7 +3587,7 @@
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="67"/>
-      <c r="D36" s="54"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="14"/>
       <c r="H36" s="46"/>
       <c r="I36" s="23"/>
@@ -3369,13 +3610,13 @@
       <c r="Z36" s="23"/>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
       <c r="H37" s="46"/>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
@@ -3398,19 +3639,19 @@
     </row>
     <row r="38" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="61" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="H38" s="46"/>
       <c r="I38" s="23"/>
@@ -3435,7 +3676,7 @@
     <row r="39" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="55"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="11" t="s">
         <v>87</v>
       </c>
@@ -3463,11 +3704,11 @@
       <c r="Z39" s="23"/>
     </row>
     <row r="40" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
       <c r="H40" s="46"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
@@ -3489,20 +3730,20 @@
       <c r="Z40" s="23"/>
     </row>
     <row r="41" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="54" t="s">
-        <v>139</v>
+      <c r="C41" s="63" t="s">
+        <v>123</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="H41" s="46"/>
       <c r="I41" s="23"/>
@@ -3525,9 +3766,9 @@
       <c r="Z41" s="23"/>
     </row>
     <row r="42" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="54"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="10" t="s">
         <v>92</v>
       </c>
@@ -3557,12 +3798,12 @@
     <row r="43" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="54"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="10" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="H43" s="46"/>
       <c r="I43" s="23"/>
@@ -3615,13 +3856,13 @@
       <c r="Z44" s="23"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
       <c r="H45" s="46"/>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
@@ -3643,26 +3884,26 @@
       <c r="Z45" s="23"/>
     </row>
     <row r="46" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="54" t="s">
+      <c r="D46" s="63" t="s">
         <v>57</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
+        <v>125</v>
+      </c>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
@@ -3683,13 +3924,13 @@
       <c r="Z46" s="23"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
       <c r="E47" s="14"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
@@ -3736,26 +3977,26 @@
       <c r="Z48" s="23"/>
     </row>
     <row r="49" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="61" t="s">
         <v>58</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="H49" s="46"/>
       <c r="I49" s="23"/>
@@ -3778,10 +4019,10 @@
       <c r="Z49" s="23"/>
     </row>
     <row r="50" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
       <c r="E50" s="18"/>
       <c r="H50" s="46"/>
       <c r="I50" s="23"/>
@@ -3830,26 +4071,26 @@
       <c r="Z51" s="23"/>
     </row>
     <row r="52" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="D52" s="54" t="s">
+      <c r="C52" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="63" t="s">
         <v>59</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="H52" s="46"/>
       <c r="I52" s="23"/>
@@ -3872,10 +4113,10 @@
       <c r="Z52" s="23"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="62"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="54"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="63"/>
       <c r="E53" s="14"/>
       <c r="H53" s="46"/>
       <c r="I53" s="23"/>
@@ -3898,11 +4139,11 @@
       <c r="Z53" s="23"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="66"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
       <c r="H54" s="46"/>
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
@@ -3924,27 +4165,27 @@
       <c r="Z54" s="23"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="G55" s="72"/>
+      <c r="G55" s="60"/>
       <c r="H55" s="46" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
@@ -3966,13 +4207,13 @@
       <c r="Z55" s="23"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="64"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
       <c r="H56" s="46"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
@@ -3996,11 +4237,11 @@
     <row r="57" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="70"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="71"/>
       <c r="E57" s="18"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
       <c r="H57" s="46"/>
       <c r="I57" s="23"/>
       <c r="J57" s="23"/>
@@ -4022,11 +4263,11 @@
       <c r="Z57" s="23"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="66"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
       <c r="H58" s="46"/>
       <c r="I58" s="23"/>
       <c r="J58" s="23"/>
@@ -4054,19 +4295,19 @@
       <c r="B59" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="68" t="s">
+      <c r="D59" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="62" t="s">
+      <c r="E59" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="G59" s="72"/>
+      <c r="F59" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="G59" s="60"/>
       <c r="H59" s="46"/>
       <c r="I59" s="23"/>
       <c r="J59" s="23"/>
@@ -4091,10 +4332,10 @@
       <c r="A60" s="67"/>
       <c r="B60" s="67"/>
       <c r="C60" s="67"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
       <c r="H60" s="46"/>
       <c r="I60" s="23"/>
       <c r="J60" s="23"/>
@@ -4119,10 +4360,10 @@
       <c r="A61" s="16"/>
       <c r="B61" s="67"/>
       <c r="C61" s="67"/>
-      <c r="D61" s="70"/>
+      <c r="D61" s="71"/>
       <c r="E61" s="14"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
       <c r="H61" s="46"/>
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
@@ -4144,13 +4385,13 @@
       <c r="Z61" s="23"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="58" t="s">
+      <c r="A62" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="58"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
       <c r="H62" s="46"/>
       <c r="I62" s="23"/>
       <c r="J62" s="23"/>
@@ -4173,12 +4414,12 @@
     </row>
     <row r="63" spans="1:26" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B63" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="61" t="s">
         <v>69</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -4209,12 +4450,12 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
       <c r="D64" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E64" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="61" t="s">
         <v>72</v>
       </c>
       <c r="H64" s="46"/>
@@ -4242,7 +4483,7 @@
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="11"/>
-      <c r="E65" s="55"/>
+      <c r="E65" s="61"/>
       <c r="H65" s="46"/>
       <c r="I65" s="23"/>
       <c r="J65" s="23"/>
@@ -4264,13 +4505,13 @@
       <c r="Z65" s="23"/>
     </row>
     <row r="66" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
       <c r="H66" s="46"/>
       <c r="I66" s="23"/>
       <c r="J66" s="23"/>
@@ -4298,17 +4539,17 @@
       <c r="B67" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="65" t="s">
         <v>64</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>65</v>
       </c>
       <c r="F67" s="42" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H67" s="46"/>
       <c r="I67" s="23"/>
@@ -4333,7 +4574,7 @@
     <row r="68" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="62"/>
+      <c r="C68" s="65"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="H68" s="46"/>
@@ -4357,13 +4598,13 @@
       <c r="Z68" s="23"/>
     </row>
     <row r="69" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="60"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
       <c r="H69" s="46"/>
       <c r="I69" s="23"/>
       <c r="J69" s="23"/>
@@ -4386,7 +4627,7 @@
     </row>
     <row r="70" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>24</v>
@@ -4398,7 +4639,7 @@
         <v>14</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="H70" s="46"/>
       <c r="I70" s="23"/>
@@ -4421,18 +4662,18 @@
       <c r="Z70" s="23"/>
     </row>
     <row r="71" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="74" t="s">
-        <v>148</v>
+      <c r="A71" s="48" t="s">
+        <v>132</v>
       </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="74" t="s">
-        <v>149</v>
+      <c r="C71" s="48" t="s">
+        <v>133</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>80</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="H71" s="46"/>
       <c r="I71" s="23"/>
@@ -4455,13 +4696,13 @@
       <c r="Z71" s="23"/>
     </row>
     <row r="72" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="48" t="s">
+      <c r="A72" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="60"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
       <c r="H72" s="46"/>
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
@@ -4483,13 +4724,13 @@
       <c r="Z72" s="23"/>
     </row>
     <row r="73" spans="1:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" s="62" t="s">
+      <c r="A73" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="65" t="s">
         <v>74</v>
       </c>
       <c r="D73" s="40" t="s">
@@ -4498,10 +4739,10 @@
       <c r="E73" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F73" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="G73" s="72"/>
+      <c r="F73" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="G73" s="60"/>
       <c r="H73" s="46"/>
       <c r="I73" s="23"/>
       <c r="J73" s="23"/>
@@ -4523,17 +4764,17 @@
       <c r="Z73" s="23"/>
     </row>
     <row r="74" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="62"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="62"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F74" s="42" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="H74" s="46"/>
       <c r="I74" s="23"/>
@@ -4558,14 +4799,14 @@
     <row r="75" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
-      <c r="C75" s="76" t="s">
-        <v>149</v>
+      <c r="C75" s="50" t="s">
+        <v>133</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E75" s="75" t="s">
-        <v>149</v>
+        <v>136</v>
+      </c>
+      <c r="E75" s="49" t="s">
+        <v>133</v>
       </c>
       <c r="H75" s="46"/>
       <c r="I75" s="23"/>
@@ -4595,7 +4836,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="H76" s="46"/>
       <c r="I76" s="23"/>
@@ -4628,7 +4869,7 @@
         <v>40</v>
       </c>
       <c r="F77" s="42" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H77" s="46"/>
       <c r="I77" s="23"/>
@@ -4685,7 +4926,7 @@
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E79" s="14" t="s">
         <v>72</v>
@@ -4718,7 +4959,7 @@
         <v>82</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="H80" s="46"/>
       <c r="I80" s="23"/>
@@ -4778,7 +5019,7 @@
         <v>84</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H82" s="46"/>
       <c r="I82" s="23"/>
@@ -4801,11 +5042,11 @@
       <c r="Z82" s="23"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
+      <c r="A83" s="83"/>
+      <c r="B83" s="83"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="83"/>
       <c r="H83" s="46"/>
       <c r="I83" s="23"/>
       <c r="J83" s="23"/>
@@ -4828,12 +5069,12 @@
     </row>
     <row r="84" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B84" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C84" s="63" t="s">
+      <c r="C84" s="66" t="s">
         <v>95</v>
       </c>
       <c r="D84" s="40" t="s">
@@ -4842,10 +5083,10 @@
       <c r="E84" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F84" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="G84" s="72"/>
+      <c r="F84" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="G84" s="60"/>
       <c r="H84" s="46"/>
       <c r="I84" s="23"/>
       <c r="J84" s="23"/>
@@ -4868,8 +5109,8 @@
     </row>
     <row r="85" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17"/>
-      <c r="B85" s="63"/>
-      <c r="C85" s="63"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="11" t="s">
         <v>7</v>
       </c>
@@ -4898,13 +5139,13 @@
     </row>
     <row r="86" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17"/>
-      <c r="B86" s="63"/>
-      <c r="C86" s="63"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E86" s="73" t="s">
-        <v>149</v>
+        <v>140</v>
+      </c>
+      <c r="E86" s="47" t="s">
+        <v>133</v>
       </c>
       <c r="H86" s="46"/>
       <c r="I86" s="23"/>
@@ -4963,8 +5204,8 @@
       <c r="D88" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E88" s="73" t="s">
-        <v>157</v>
+      <c r="E88" s="47" t="s">
+        <v>141</v>
       </c>
       <c r="H88" s="46"/>
       <c r="I88" s="23"/>
@@ -5051,7 +5292,7 @@
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="18" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E91" s="18" t="s">
         <v>72</v>
@@ -5111,7 +5352,7 @@
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E93" s="12"/>
       <c r="H93" s="46"/>
@@ -5142,7 +5383,7 @@
         <v>103</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="H94" s="46"/>
       <c r="I94" s="23"/>
@@ -5195,13 +5436,13 @@
       <c r="Z95" s="23"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
+      <c r="A96" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="73"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="73"/>
+      <c r="E96" s="73"/>
       <c r="H96" s="46"/>
       <c r="I96" s="23"/>
       <c r="J96" s="23"/>
@@ -5224,24 +5465,24 @@
     </row>
     <row r="97" spans="1:26" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B97" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D97" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E97" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="F97" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="G97" s="72"/>
+      <c r="E97" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F97" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="G97" s="60"/>
       <c r="H97" s="46"/>
       <c r="I97" s="23"/>
       <c r="J97" s="23"/>
@@ -5297,10 +5538,10 @@
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
       <c r="D99" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E99" s="80" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="E99" s="54" t="s">
+        <v>133</v>
       </c>
       <c r="H99" s="46"/>
       <c r="I99" s="23"/>
@@ -5359,8 +5600,8 @@
       <c r="D101" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E101" s="81" t="s">
-        <v>157</v>
+      <c r="E101" s="55" t="s">
+        <v>141</v>
       </c>
       <c r="H101" s="46"/>
       <c r="I101" s="23"/>
@@ -5447,7 +5688,7 @@
       <c r="B104" s="27"/>
       <c r="C104" s="28"/>
       <c r="D104" s="21" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E104" s="21" t="s">
         <v>72</v>
@@ -5469,10 +5710,10 @@
       <c r="B106" s="27"/>
       <c r="C106" s="28"/>
       <c r="D106" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E106" s="77" t="s">
-        <v>159</v>
+        <v>165</v>
+      </c>
+      <c r="E106" s="51" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -5483,7 +5724,7 @@
         <v>103</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5506,24 +5747,24 @@
     </row>
     <row r="110" spans="1:26" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="B110" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="D110" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E110" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="F110" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="G110" s="72"/>
+      <c r="E110" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="F110" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="G110" s="60"/>
     </row>
     <row r="111" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="33"/>
@@ -5541,10 +5782,10 @@
       <c r="B112" s="34"/>
       <c r="C112" s="33"/>
       <c r="D112" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E112" s="82" t="s">
-        <v>149</v>
+        <v>170</v>
+      </c>
+      <c r="E112" s="56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5565,8 +5806,8 @@
       <c r="D114" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="E114" s="82" t="s">
-        <v>157</v>
+      <c r="E114" s="56" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5574,7 +5815,7 @@
       <c r="B115" s="34"/>
       <c r="C115" s="33"/>
       <c r="D115" s="32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E115" s="32" t="s">
         <v>65</v>
@@ -5596,7 +5837,7 @@
       <c r="B117" s="34"/>
       <c r="C117" s="33"/>
       <c r="D117" s="32" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E117" s="32" t="s">
         <v>72</v>
@@ -5618,10 +5859,10 @@
       <c r="B119" s="34"/>
       <c r="C119" s="33"/>
       <c r="D119" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E119" s="83" t="s">
-        <v>159</v>
+        <v>169</v>
+      </c>
+      <c r="E119" s="57" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5655,13 +5896,13 @@
     </row>
     <row r="123" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B123" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C123" s="49" t="s">
-        <v>167</v>
+      <c r="C123" s="78" t="s">
+        <v>148</v>
       </c>
       <c r="D123" s="40" t="s">
         <v>78</v>
@@ -5669,15 +5910,15 @@
       <c r="E123" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F123" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="G123" s="72"/>
+      <c r="F123" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="G123" s="60"/>
     </row>
     <row r="124" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="28"/>
-      <c r="B124" s="49"/>
-      <c r="C124" s="49"/>
+      <c r="B124" s="78"/>
+      <c r="C124" s="78"/>
       <c r="D124" s="22" t="s">
         <v>7</v>
       </c>
@@ -5687,13 +5928,13 @@
     </row>
     <row r="125" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="28"/>
-      <c r="B125" s="49"/>
-      <c r="C125" s="49"/>
+      <c r="B125" s="78"/>
+      <c r="C125" s="78"/>
       <c r="D125" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E125" s="80" t="s">
-        <v>168</v>
+      <c r="E125" s="54" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5714,8 +5955,8 @@
       <c r="D127" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E127" s="80" t="s">
-        <v>157</v>
+      <c r="E127" s="54" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5745,7 +5986,7 @@
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
       <c r="D130" s="21" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E130" s="21" t="s">
         <v>72</v>
@@ -5767,13 +6008,13 @@
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
       <c r="D132" s="22" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="E132" s="22" t="s">
         <v>65</v>
       </c>
       <c r="F132" s="42" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5799,29 +6040,66 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C139" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="D139" s="84"/>
+      <c r="C139" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D139" s="59"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C140" s="84"/>
-      <c r="D140" s="84"/>
+      <c r="C140" s="59"/>
+      <c r="D140" s="59"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C141" s="84"/>
-      <c r="D141" s="84"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="C139:D141"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="F55:G57"/>
-    <mergeCell ref="F59:G61"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B73:B74"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="D49:D50"/>
@@ -5838,59 +6116,22 @@
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C139:D141"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="F55:G57"/>
+    <mergeCell ref="F59:G61"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F84:G84"/>
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="D59:D61"/>
     <mergeCell ref="E64:E65"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C32"/>
     <mergeCell ref="A66:E66"/>
     <mergeCell ref="A69:E69"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="A72:E72"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Test Cases Pet registration v2y.xlsx
+++ b/Test Cases Pet registration v2y.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnikolova\Desktop\PetStoreTestingTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzhingova\Desktop\PetStoreTestingTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,14 +13,73 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mariya Zhingova</author>
+  </authors>
+  <commentList>
+    <comment ref="E15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mariya Zhingova:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Wrong Expected result</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A55" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mariya Zhingova:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2 is the down possible boundary.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="183">
   <si>
     <t>TC Title</t>
   </si>
@@ -31,9 +90,6 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Display error message</t>
-  </si>
-  <si>
     <t>Pet name input</t>
   </si>
   <si>
@@ -184,9 +240,6 @@
     <t>Check if the Owner name field accepts  empty data</t>
   </si>
   <si>
-    <t>Check if the Owner name field accepts  less than 2 characters</t>
-  </si>
-  <si>
     <t>Check if the owner name field accepts  more than 16 characters</t>
   </si>
   <si>
@@ -211,9 +264,6 @@
     <t>Verify that not filling the mandatory fields and clicking submit button will lead to validation error</t>
   </si>
   <si>
-    <t>Check if leaving  the form empty and clicking the submit button will lead to validation error</t>
-  </si>
-  <si>
     <t>Verify that the "description field  accepts not more than 255 characters</t>
   </si>
   <si>
@@ -224,9 +274,6 @@
   </si>
   <si>
     <t xml:space="preserve">Verify that the owner name field does not accept less than 2 characters </t>
-  </si>
-  <si>
-    <t>Verify that the owner name field  accept only alphabets and numbers</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that the date is displayed in the birth date field </t>
@@ -1261,6 +1308,103 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Make registration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">entering </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>incorect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> data for pet name </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10.Type  less than 255 character in the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Discription</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> text area</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Make </t>
     </r>
     <r>
@@ -1296,8 +1440,43 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Owner name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Make registration entering </t>
+    </r>
+    <r>
+      <rPr>
         <u/>
         <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>incorect</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1311,25 +1490,97 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>user name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">data for  owner name </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.Enter </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>Make registration</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
+      <t>incorect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> data( less than 2 more characters ,than 16 characters , symbols) for the "Owner name " field .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.Type  less than 255 character in the</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Discription</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> text area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.Select  random  pet type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1338,15 +1589,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">entering </t>
-    </r>
-    <r>
-      <rPr>
         <u/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
@@ -1354,21 +1596,12 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>incorect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> data for pet name </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10.Type  less than 255 character in the </t>
+      <t>:D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Make</t>
     </r>
     <r>
       <rPr>
@@ -1378,6 +1611,41 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>regsitration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> entering  more than 255 characters In the description area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10.Type  more  than 255 character in the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
       <t>"</t>
     </r>
     <r>
@@ -1393,63 +1661,51 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" text area</t>
+    </r>
+  </si>
+  <si>
+    <t>why leave all other fields empty?</t>
+  </si>
+  <si>
+    <t>Submit empty pet registration form</t>
+  </si>
+  <si>
+    <t>Error message displays</t>
+  </si>
+  <si>
+    <t>Enter one character Owner name</t>
+  </si>
+  <si>
+    <t>Pet registration page is displayed</t>
+  </si>
+  <si>
+    <t>Verify that the owner name field  accepts only alphabets and numbers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Try to register with </t>
+    </r>
+    <r>
+      <rPr>
         <u/>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> text area</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Make </t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>incorrec</t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>regsitration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> entering  </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>incorrec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1463,229 +1719,47 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>Owner name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Make registration entering </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>incorect</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">data for  owner name </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.Enter </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>incorect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> data( less than 2 more characters ,than 16 characters , symbols) for the "Owner name " field .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.Type  less than 255 character in the</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Discription</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> text area</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.Select  random  pet type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>:D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Make</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>regsitration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> entering  more than 255 characters In the description area</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10.Type  more  than 255 character in the </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Discription</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>" text area</t>
-    </r>
-  </si>
-  <si>
-    <t>why leave all other fields empty?</t>
+      <t>pet name</t>
+    </r>
+  </si>
+  <si>
+    <t>Register new User</t>
+  </si>
+  <si>
+    <t>User is on the Uesr registration form</t>
+  </si>
+  <si>
+    <t>1. Fill User name with: Koicho
+2. Fill User name with: Koicho
+3. Fill User name with: Koicho
+4. Fill User name with: Koicho
+5. Click on submit button</t>
+  </si>
+  <si>
+    <t>Registration is successful</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>1. Fill User name with: Koicho123
+2. Fill User name with: Aa1@_asd
+3. Fill User name with: Koicho
+4. Fill User name with: Koicho
+5. Click on submit button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1806,6 +1880,32 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1874,7 +1974,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1934,12 +2034,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2108,6 +2223,75 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2117,81 +2301,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2496,24 +2627,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55:A56"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="42" customWidth="1"/>
-    <col min="7" max="7" width="22" style="39" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="45"/>
+    <col min="1" max="1" width="25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="42" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="39"/>
+    <col min="8" max="8" width="9.42578125" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -2521,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -2533,24 +2664,24 @@
         <v>2</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>46</v>
       </c>
       <c r="H2" s="46"/>
       <c r="I2" s="23"/>
@@ -2578,7 +2709,7 @@
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="46"/>
       <c r="I3" s="23"/>
@@ -2606,7 +2737,7 @@
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H4" s="46"/>
       <c r="I4" s="23"/>
@@ -2634,7 +2765,7 @@
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="23"/>
@@ -2662,7 +2793,7 @@
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="23"/>
@@ -2690,7 +2821,7 @@
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="46"/>
       <c r="I7" s="23"/>
@@ -2718,10 +2849,10 @@
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H8" s="46"/>
       <c r="I8" s="23"/>
@@ -2749,7 +2880,7 @@
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="46"/>
       <c r="I9" s="23"/>
@@ -2777,7 +2908,7 @@
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="46"/>
       <c r="I10" s="23"/>
@@ -2805,7 +2936,7 @@
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H11" s="46"/>
       <c r="I11" s="23"/>
@@ -2855,22 +2986,22 @@
     </row>
     <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="F13" s="43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G13" s="41"/>
       <c r="H13" s="46"/>
@@ -2900,7 +3031,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G14" s="41"/>
       <c r="H14" s="46"/>
@@ -2923,24 +3054,24 @@
       <c r="Y14" s="23"/>
       <c r="Z14" s="23"/>
     </row>
-    <row r="15" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="24" t="s">
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="86" t="s">
         <v>19</v>
       </c>
+      <c r="E15" s="86" t="s">
+        <v>18</v>
+      </c>
       <c r="F15" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="23"/>
@@ -2990,22 +3121,22 @@
     </row>
     <row r="17" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="F17" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="23"/>
@@ -3054,17 +3185,17 @@
       <c r="Z18" s="23"/>
     </row>
     <row r="19" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>62</v>
+      <c r="A19" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>60</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="11"/>
       <c r="H19" s="46"/>
@@ -3088,14 +3219,14 @@
       <c r="Z19" s="23"/>
     </row>
     <row r="20" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="23"/>
@@ -3118,13 +3249,13 @@
       <c r="Z20" s="23"/>
     </row>
     <row r="21" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
+      <c r="A21" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
       <c r="H21" s="46"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
@@ -3147,25 +3278,25 @@
     </row>
     <row r="22" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="23"/>
@@ -3215,25 +3346,25 @@
     </row>
     <row r="24" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="61" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>41</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H24" s="46"/>
       <c r="I24" s="23"/>
@@ -3258,8 +3389,8 @@
     <row r="25" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="18"/>
       <c r="H25" s="46"/>
       <c r="I25" s="23"/>
@@ -3309,25 +3440,25 @@
     </row>
     <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>42</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H27" s="46"/>
       <c r="I27" s="23"/>
@@ -3352,8 +3483,8 @@
     <row r="28" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="63"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="14"/>
       <c r="H28" s="46"/>
       <c r="I28" s="23"/>
@@ -3376,11 +3507,11 @@
       <c r="Z28" s="23"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
       <c r="H29" s="46"/>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
@@ -3402,23 +3533,23 @@
       <c r="Z29" s="23"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="66" t="s">
-        <v>32</v>
+      <c r="A30" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>31</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H30" s="46"/>
       <c r="I30" s="23"/>
@@ -3441,11 +3572,11 @@
       <c r="Z30" s="23"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="66"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="73"/>
       <c r="H31" s="46"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -3469,8 +3600,8 @@
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="61"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="18"/>
       <c r="H32" s="46"/>
       <c r="I32" s="23"/>
@@ -3493,11 +3624,11 @@
       <c r="Z32" s="23"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
       <c r="H33" s="46"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
@@ -3519,20 +3650,20 @@
       <c r="Z33" s="23"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="65" t="s">
-        <v>40</v>
+      <c r="A34" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>39</v>
       </c>
       <c r="H34" s="46"/>
       <c r="I34" s="23"/>
@@ -3555,13 +3686,13 @@
       <c r="Z34" s="23"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="67"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="65"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="64"/>
       <c r="F35" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H35" s="46"/>
       <c r="I35" s="23"/>
@@ -3586,8 +3717,8 @@
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="63"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="14"/>
       <c r="H36" s="46"/>
       <c r="I36" s="23"/>
@@ -3610,13 +3741,13 @@
       <c r="Z36" s="23"/>
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
+      <c r="A37" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
       <c r="H37" s="46"/>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
@@ -3639,19 +3770,19 @@
     </row>
     <row r="38" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="61" t="s">
-        <v>90</v>
+        <v>23</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>86</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H38" s="46"/>
       <c r="I38" s="23"/>
@@ -3676,12 +3807,12 @@
     <row r="39" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="61"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H39" s="46"/>
       <c r="I39" s="23"/>
@@ -3704,11 +3835,11 @@
       <c r="Z39" s="23"/>
     </row>
     <row r="40" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
       <c r="H40" s="46"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
@@ -3730,20 +3861,20 @@
       <c r="Z40" s="23"/>
     </row>
     <row r="41" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="63" t="s">
-        <v>123</v>
+      <c r="A41" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>119</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H41" s="46"/>
       <c r="I41" s="23"/>
@@ -3766,14 +3897,14 @@
       <c r="Z41" s="23"/>
     </row>
     <row r="42" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="63"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="63"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H42" s="46"/>
       <c r="I42" s="23"/>
@@ -3798,12 +3929,12 @@
     <row r="43" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="63"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H43" s="46"/>
       <c r="I43" s="23"/>
@@ -3830,10 +3961,10 @@
       <c r="B44" s="7"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H44" s="46"/>
       <c r="I44" s="23"/>
@@ -3856,13 +3987,13 @@
       <c r="Z44" s="23"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
+      <c r="A45" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="66"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
       <c r="H45" s="46"/>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
@@ -3884,26 +4015,26 @@
       <c r="Z45" s="23"/>
     </row>
     <row r="46" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="63" t="s">
-        <v>57</v>
+      <c r="A46" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="62" t="s">
+        <v>55</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
+        <v>121</v>
+      </c>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
@@ -3924,13 +4055,13 @@
       <c r="Z46" s="23"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="63"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
       <c r="E47" s="14"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
@@ -3977,26 +4108,26 @@
       <c r="Z48" s="23"/>
     </row>
     <row r="49" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="61" t="s">
-        <v>58</v>
+      <c r="A49" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>56</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H49" s="46"/>
       <c r="I49" s="23"/>
@@ -4019,10 +4150,10 @@
       <c r="Z49" s="23"/>
     </row>
     <row r="50" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="61"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="18"/>
       <c r="H50" s="46"/>
       <c r="I50" s="23"/>
@@ -4071,26 +4202,26 @@
       <c r="Z51" s="23"/>
     </row>
     <row r="52" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="63" t="s">
-        <v>59</v>
+      <c r="A52" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="62" t="s">
+        <v>57</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H52" s="46"/>
       <c r="I52" s="23"/>
@@ -4113,10 +4244,10 @@
       <c r="Z52" s="23"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="63"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="62"/>
       <c r="E53" s="14"/>
       <c r="H53" s="46"/>
       <c r="I53" s="23"/>
@@ -4139,11 +4270,11 @@
       <c r="Z53" s="23"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="62"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
       <c r="H54" s="46"/>
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
@@ -4165,27 +4296,27 @@
       <c r="Z54" s="23"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="G55" s="60"/>
+      <c r="A55" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G55" s="83"/>
       <c r="H55" s="46" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
@@ -4207,13 +4338,13 @@
       <c r="Z55" s="23"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="68"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
+      <c r="A56" s="74"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
       <c r="H56" s="46"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
@@ -4237,11 +4368,11 @@
     <row r="57" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="71"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="79"/>
       <c r="E57" s="18"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
       <c r="H57" s="46"/>
       <c r="I57" s="23"/>
       <c r="J57" s="23"/>
@@ -4263,11 +4394,11 @@
       <c r="Z57" s="23"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
       <c r="H58" s="46"/>
       <c r="I58" s="23"/>
       <c r="J58" s="23"/>
@@ -4289,25 +4420,25 @@
       <c r="Z58" s="23"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="G59" s="60"/>
+      <c r="A59" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G59" s="83"/>
       <c r="H59" s="46"/>
       <c r="I59" s="23"/>
       <c r="J59" s="23"/>
@@ -4329,13 +4460,13 @@
       <c r="Z59" s="23"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="67"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
       <c r="H60" s="46"/>
       <c r="I60" s="23"/>
       <c r="J60" s="23"/>
@@ -4358,12 +4489,12 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="71"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="79"/>
       <c r="E61" s="14"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
       <c r="H61" s="46"/>
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
@@ -4385,13 +4516,13 @@
       <c r="Z61" s="23"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="84"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
+      <c r="A62" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
       <c r="H62" s="46"/>
       <c r="I62" s="23"/>
       <c r="J62" s="23"/>
@@ -4414,19 +4545,19 @@
     </row>
     <row r="63" spans="1:26" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="61" t="s">
-        <v>69</v>
+        <v>125</v>
+      </c>
+      <c r="B63" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="63" t="s">
+        <v>65</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H63" s="46"/>
       <c r="I63" s="23"/>
@@ -4450,13 +4581,13 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
       <c r="D64" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="61" t="s">
-        <v>72</v>
+        <v>104</v>
+      </c>
+      <c r="E64" s="63" t="s">
+        <v>68</v>
       </c>
       <c r="H64" s="46"/>
       <c r="I64" s="23"/>
@@ -4483,7 +4614,7 @@
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="11"/>
-      <c r="E65" s="61"/>
+      <c r="E65" s="63"/>
       <c r="H65" s="46"/>
       <c r="I65" s="23"/>
       <c r="J65" s="23"/>
@@ -4505,13 +4636,13 @@
       <c r="Z65" s="23"/>
     </row>
     <row r="66" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="73"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
+      <c r="A66" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="66"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
       <c r="H66" s="46"/>
       <c r="I66" s="23"/>
       <c r="J66" s="23"/>
@@ -4534,22 +4665,22 @@
     </row>
     <row r="67" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="65" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="C67" s="64" t="s">
+        <v>61</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F67" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H67" s="46"/>
       <c r="I67" s="23"/>
@@ -4574,7 +4705,7 @@
     <row r="68" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="65"/>
+      <c r="C68" s="64"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="H68" s="46"/>
@@ -4598,13 +4729,13 @@
       <c r="Z68" s="23"/>
     </row>
     <row r="69" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="75"/>
-      <c r="C69" s="76"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
+      <c r="A69" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="84"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
       <c r="H69" s="46"/>
       <c r="I69" s="23"/>
       <c r="J69" s="23"/>
@@ -4627,19 +4758,19 @@
     </row>
     <row r="70" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C70" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="18" t="s">
-        <v>14</v>
-      </c>
       <c r="E70" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H70" s="46"/>
       <c r="I70" s="23"/>
@@ -4663,17 +4794,17 @@
     </row>
     <row r="71" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="48" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="48" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H71" s="46"/>
       <c r="I71" s="23"/>
@@ -4696,13 +4827,13 @@
       <c r="Z71" s="23"/>
     </row>
     <row r="72" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" s="75"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
+      <c r="A72" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="84"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
       <c r="H72" s="46"/>
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
@@ -4724,25 +4855,25 @@
       <c r="Z72" s="23"/>
     </row>
     <row r="73" spans="1:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="B73" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" s="65" t="s">
+      <c r="A73" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D73" s="40" t="s">
-        <v>78</v>
-      </c>
       <c r="E73" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F73" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="G73" s="60"/>
+        <v>39</v>
+      </c>
+      <c r="F73" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G73" s="83"/>
       <c r="H73" s="46"/>
       <c r="I73" s="23"/>
       <c r="J73" s="23"/>
@@ -4764,17 +4895,17 @@
       <c r="Z73" s="23"/>
     </row>
     <row r="74" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="65"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
       <c r="D74" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F74" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H74" s="46"/>
       <c r="I74" s="23"/>
@@ -4800,13 +4931,13 @@
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E75" s="49" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H75" s="46"/>
       <c r="I75" s="23"/>
@@ -4833,10 +4964,10 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H76" s="46"/>
       <c r="I76" s="23"/>
@@ -4863,13 +4994,13 @@
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F77" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H77" s="46"/>
       <c r="I77" s="23"/>
@@ -4896,10 +5027,10 @@
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H78" s="46"/>
       <c r="I78" s="23"/>
@@ -4926,10 +5057,10 @@
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H79" s="46"/>
       <c r="I79" s="23"/>
@@ -4956,10 +5087,10 @@
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H80" s="46"/>
       <c r="I80" s="23"/>
@@ -4986,10 +5117,10 @@
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
       <c r="D81" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H81" s="46"/>
       <c r="I81" s="23"/>
@@ -5016,10 +5147,10 @@
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H82" s="46"/>
       <c r="I82" s="23"/>
@@ -5042,11 +5173,11 @@
       <c r="Z82" s="23"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="83"/>
-      <c r="B83" s="83"/>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="83"/>
+      <c r="A83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
       <c r="H83" s="46"/>
       <c r="I83" s="23"/>
       <c r="J83" s="23"/>
@@ -5069,24 +5200,24 @@
     </row>
     <row r="84" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B84" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C84" s="66" t="s">
-        <v>95</v>
+        <v>158</v>
+      </c>
+      <c r="B84" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="73" t="s">
+        <v>91</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F84" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="G84" s="60"/>
+        <v>39</v>
+      </c>
+      <c r="F84" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G84" s="83"/>
       <c r="H84" s="46"/>
       <c r="I84" s="23"/>
       <c r="J84" s="23"/>
@@ -5109,13 +5240,13 @@
     </row>
     <row r="85" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="66"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="73"/>
       <c r="D85" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H85" s="46"/>
       <c r="I85" s="23"/>
@@ -5139,13 +5270,13 @@
     </row>
     <row r="86" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="73"/>
       <c r="D86" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E86" s="47" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H86" s="46"/>
       <c r="I86" s="23"/>
@@ -5172,10 +5303,10 @@
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H87" s="46"/>
       <c r="I87" s="23"/>
@@ -5202,10 +5333,10 @@
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E88" s="47" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H88" s="46"/>
       <c r="I88" s="23"/>
@@ -5232,10 +5363,10 @@
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H89" s="46"/>
       <c r="I89" s="23"/>
@@ -5262,10 +5393,10 @@
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H90" s="46"/>
       <c r="I90" s="23"/>
@@ -5292,10 +5423,10 @@
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H91" s="46"/>
       <c r="I91" s="23"/>
@@ -5322,10 +5453,10 @@
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H92" s="46"/>
       <c r="I92" s="23"/>
@@ -5352,7 +5483,7 @@
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E93" s="12"/>
       <c r="H93" s="46"/>
@@ -5380,10 +5511,10 @@
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H94" s="46"/>
       <c r="I94" s="23"/>
@@ -5410,10 +5541,10 @@
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H95" s="46"/>
       <c r="I95" s="23"/>
@@ -5436,13 +5567,13 @@
       <c r="Z95" s="23"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="B96" s="73"/>
-      <c r="C96" s="73"/>
-      <c r="D96" s="73"/>
-      <c r="E96" s="73"/>
+      <c r="A96" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="66"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
       <c r="H96" s="46"/>
       <c r="I96" s="23"/>
       <c r="J96" s="23"/>
@@ -5465,24 +5596,24 @@
     </row>
     <row r="97" spans="1:26" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E97" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="F97" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="G97" s="60"/>
+        <v>140</v>
+      </c>
+      <c r="F97" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G97" s="83"/>
       <c r="H97" s="46"/>
       <c r="I97" s="23"/>
       <c r="J97" s="23"/>
@@ -5508,10 +5639,10 @@
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
       <c r="D98" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H98" s="46"/>
       <c r="I98" s="23"/>
@@ -5538,10 +5669,10 @@
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
       <c r="D99" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E99" s="54" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H99" s="46"/>
       <c r="I99" s="23"/>
@@ -5568,10 +5699,10 @@
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
       <c r="D100" s="21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H100" s="46"/>
       <c r="I100" s="23"/>
@@ -5598,10 +5729,10 @@
       <c r="B101" s="27"/>
       <c r="C101" s="27"/>
       <c r="D101" s="21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E101" s="55" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H101" s="46"/>
       <c r="I101" s="23"/>
@@ -5628,10 +5759,10 @@
       <c r="B102" s="27"/>
       <c r="C102" s="27"/>
       <c r="D102" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H102" s="46"/>
       <c r="I102" s="23"/>
@@ -5658,10 +5789,10 @@
       <c r="B103" s="27"/>
       <c r="C103" s="27"/>
       <c r="D103" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H103" s="46"/>
       <c r="I103" s="23"/>
@@ -5688,10 +5819,10 @@
       <c r="B104" s="27"/>
       <c r="C104" s="28"/>
       <c r="D104" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5699,10 +5830,10 @@
       <c r="B105" s="27"/>
       <c r="C105" s="28"/>
       <c r="D105" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5710,10 +5841,10 @@
       <c r="B106" s="27"/>
       <c r="C106" s="28"/>
       <c r="D106" s="22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E106" s="51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -5721,10 +5852,10 @@
       <c r="B107" s="27"/>
       <c r="C107" s="28"/>
       <c r="D107" s="21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5732,10 +5863,10 @@
       <c r="B108" s="27"/>
       <c r="C108" s="28"/>
       <c r="D108" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5747,34 +5878,34 @@
     </row>
     <row r="110" spans="1:26" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E110" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="F110" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="G110" s="60"/>
+        <v>141</v>
+      </c>
+      <c r="F110" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G110" s="83"/>
     </row>
     <row r="111" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="33"/>
       <c r="B111" s="34"/>
       <c r="C111" s="33"/>
       <c r="D111" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E111" s="32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5782,10 +5913,10 @@
       <c r="B112" s="34"/>
       <c r="C112" s="33"/>
       <c r="D112" s="35" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E112" s="56" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5793,10 +5924,10 @@
       <c r="B113" s="34"/>
       <c r="C113" s="33"/>
       <c r="D113" s="32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5804,10 +5935,10 @@
       <c r="B114" s="34"/>
       <c r="C114" s="33"/>
       <c r="D114" s="32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E114" s="56" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5815,10 +5946,10 @@
       <c r="B115" s="34"/>
       <c r="C115" s="33"/>
       <c r="D115" s="32" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E115" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5826,10 +5957,10 @@
       <c r="B116" s="34"/>
       <c r="C116" s="33"/>
       <c r="D116" s="32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E116" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5837,10 +5968,10 @@
       <c r="B117" s="34"/>
       <c r="C117" s="33"/>
       <c r="D117" s="32" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E117" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5848,10 +5979,10 @@
       <c r="B118" s="34"/>
       <c r="C118" s="33"/>
       <c r="D118" s="32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E118" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -5859,10 +5990,10 @@
       <c r="B119" s="34"/>
       <c r="C119" s="33"/>
       <c r="D119" s="35" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E119" s="57" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5870,10 +6001,10 @@
       <c r="B120" s="34"/>
       <c r="C120" s="33"/>
       <c r="D120" s="32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E120" s="32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5881,10 +6012,10 @@
       <c r="B121" s="34"/>
       <c r="C121" s="33"/>
       <c r="D121" s="32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E121" s="32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5896,45 +6027,45 @@
     </row>
     <row r="123" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B123" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123" s="78" t="s">
-        <v>148</v>
+        <v>166</v>
+      </c>
+      <c r="B123" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="67" t="s">
+        <v>144</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F123" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="G123" s="60"/>
+        <v>39</v>
+      </c>
+      <c r="F123" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G123" s="83"/>
     </row>
     <row r="124" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="28"/>
-      <c r="B124" s="78"/>
-      <c r="C124" s="78"/>
+      <c r="B124" s="67"/>
+      <c r="C124" s="67"/>
       <c r="D124" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="28"/>
-      <c r="B125" s="78"/>
-      <c r="C125" s="78"/>
+      <c r="B125" s="67"/>
+      <c r="C125" s="67"/>
       <c r="D125" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E125" s="54" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5942,10 +6073,10 @@
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
       <c r="D126" s="21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5953,10 +6084,10 @@
       <c r="B127" s="36"/>
       <c r="C127" s="36"/>
       <c r="D127" s="21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E127" s="54" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5964,10 +6095,10 @@
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
       <c r="D128" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5975,10 +6106,10 @@
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
       <c r="D129" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5986,10 +6117,10 @@
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
       <c r="D130" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -5997,10 +6128,10 @@
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
       <c r="D131" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6008,13 +6139,13 @@
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
       <c r="D132" s="22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E132" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F132" s="42" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6022,10 +6153,10 @@
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
       <c r="D133" s="21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -6033,56 +6164,60 @@
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
       <c r="D134" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C139" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="D139" s="59"/>
+      <c r="C139" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="D139" s="82"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C140" s="59"/>
-      <c r="D140" s="59"/>
+      <c r="C140" s="82"/>
+      <c r="D140" s="82"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C141" s="59"/>
-      <c r="D141" s="59"/>
+      <c r="C141" s="82"/>
+      <c r="D141" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C139:D141"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="F55:G57"/>
+    <mergeCell ref="F59:G61"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="A46:A47"/>
@@ -6099,46 +6234,430 @@
     <mergeCell ref="E55:E56"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C139:D141"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="F55:G57"/>
-    <mergeCell ref="F59:G61"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" style="91" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="91" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="91" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="91"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
